--- a/data/shed_rates_median.xlsx
+++ b/data/shed_rates_median.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>404.9563078466733</v>
+        <v>404.9563078466732</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>413.0498655489592</v>
+        <v>413.0498655489591</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>476.1100525843363</v>
+        <v>476.1100525843364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>salsal</t>
+          <t>salalp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -431,13 +431,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>111.5520439632081</v>
+        <v>191.8985815384616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>salsal</t>
+          <t>salalp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -446,13 +446,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>129.5410011444718</v>
+        <v>197.4886518480697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>salsal</t>
+          <t>salalp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>191.1154036551647</v>
+        <v>68.0132732401204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>saltru</t>
+          <t>salsal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>1016.853684272232</v>
+        <v>111.5520439632081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>saltru</t>
+          <t>salsal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>646.3335207396226</v>
+        <v>129.5410011444718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>saltru</t>
+          <t>salsal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>245.563057869088</v>
+        <v>191.1154036551647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>salalp</t>
+          <t>saltru</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>95.94929076923079</v>
+        <v>1016.853684272232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>salalp</t>
+          <t>saltru</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>98.74432592403483</v>
+        <v>646.3335207396227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>salalp</t>
+          <t>saltru</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>34.0066366200602</v>
+        <v>245.563057869088</v>
       </c>
     </row>
   </sheetData>
